--- a/project/public/file/custom-input-data.xlsx
+++ b/project/public/file/custom-input-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3088\OneDrive\바탕 화면\　\코딩\My\프로젝트\V-DAS\project\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD37F52-0347-410A-9D80-3D782611F456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E579B633-B36C-41F8-81A4-045522FC1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="20895" windowHeight="11835" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" xr2:uid="{2C90205A-45B4-C04B-97C1-2FDE7A5BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -39,200 +39,200 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>남자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>여자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>단체명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>송도제일교회</t>
   </si>
   <si>
     <t>송도제일교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예수로교회</t>
   </si>
   <si>
     <t>예수로교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>물댄동산교회</t>
   </si>
   <si>
     <t>물댄동산교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>굿모닝교회</t>
   </si>
   <si>
     <t>굿모닝교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>채운제일교회</t>
   </si>
   <si>
     <t>채운제일교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>진원교회</t>
   </si>
   <si>
     <t>진원교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>한소망교회</t>
   </si>
   <si>
     <t>한소망교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대구침산교회</t>
   </si>
   <si>
     <t>대구침산교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신방교회</t>
   </si>
   <si>
     <t>신방교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>고성침례교회</t>
   </si>
   <si>
     <t>고성침례교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>운회교회</t>
   </si>
   <si>
     <t>운회교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예빛교회</t>
   </si>
   <si>
     <t>예빛교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>성일교회</t>
   </si>
   <si>
     <t>성일교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>완주서두교회</t>
   </si>
   <si>
     <t>완주서두교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>새동산교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대구서현교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>순복음은성교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>큰사랑교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삼호사랑의교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>하늘가족생명교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>순천새중앙교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>육곡교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광주주품교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영양중앙교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>행복한반석교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>영성교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>우리교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>월야교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작은교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>행복한은혜교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>광성드림학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>참빛소망교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>예수따라가능교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삼일중앙교회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>새동산교회</t>
@@ -295,16 +295,157 @@
     <t>삼일중앙교회</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>test20</t>
+  </si>
+  <si>
+    <t>test21</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>test23</t>
+  </si>
+  <si>
+    <t>test24</t>
+  </si>
+  <si>
+    <t>test25</t>
+  </si>
+  <si>
+    <t>test26</t>
+  </si>
+  <si>
+    <t>test27</t>
+  </si>
+  <si>
+    <t>test28</t>
+  </si>
+  <si>
+    <t>test29</t>
+  </si>
+  <si>
+    <t>test30</t>
+  </si>
+  <si>
+    <t>test31</t>
+  </si>
+  <si>
+    <t>test32</t>
+  </si>
+  <si>
+    <t>test33</t>
+  </si>
+  <si>
+    <t>test34</t>
+  </si>
+  <si>
+    <t>test35</t>
+  </si>
+  <si>
+    <t>test36</t>
+  </si>
+  <si>
+    <t>test37</t>
+  </si>
+  <si>
+    <t>test38</t>
+  </si>
+  <si>
+    <t>test39</t>
+  </si>
+  <si>
+    <t>test40</t>
+  </si>
+  <si>
+    <t>test41</t>
+  </si>
+  <si>
+    <t>test42</t>
+  </si>
+  <si>
+    <t>test43</t>
+  </si>
+  <si>
+    <t>test44</t>
+  </si>
+  <si>
+    <t>test45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -383,23 +524,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7820ECB5-0782-0B42-B43D-4277CF5933AB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,153 +915,153 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B5" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D6" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5">
         <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D9" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D11" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5">
         <v>5</v>
@@ -925,27 +1069,27 @@
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -953,83 +1097,83 @@
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B19" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D19" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5">
         <v>3</v>
@@ -1037,27 +1181,27 @@
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5">
         <v>5</v>
@@ -1065,125 +1209,125 @@
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B23" s="5">
         <v>2</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D23" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D24" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D25" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5">
         <v>2</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D26" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B27" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D27" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B28" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D28" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D30" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5">
         <v>5</v>
@@ -1191,41 +1335,41 @@
     </row>
     <row r="32" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="5">
         <v>4</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -1233,24 +1377,24 @@
     </row>
     <row r="35" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="B35" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D35" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>3</v>
@@ -1259,8 +1403,363 @@
         <v>7</v>
       </c>
     </row>
+    <row r="37" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="5">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
+    <sortCondition descending="1" ref="B1:B37"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>